--- a/static_list.xlsx
+++ b/static_list.xlsx
@@ -14,7 +14,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+  <si>
+    <t xml:space="preserve">extern </t>
+  </si>
+  <si>
+    <t>dsr_node</t>
+  </si>
+  <si>
+    <t>dsr节点</t>
+  </si>
+  <si>
+    <t>dsr.h</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>confvals_def</t>
+  </si>
+  <si>
+    <t>90行定义的无名结构体</t>
+  </si>
+  <si>
+    <t>lc_graph LC</t>
+  </si>
+  <si>
+    <t>31行</t>
+  </si>
+  <si>
+    <t>Link-cache.c</t>
+  </si>
+  <si>
+    <t>rtc_len</t>
+  </si>
+  <si>
+    <t>27行</t>
+  </si>
+  <si>
+    <t>dsr-rtc-simple.c</t>
+  </si>
+  <si>
+    <t>rtc_lock</t>
+  </si>
+  <si>
+    <t>28行</t>
+  </si>
+  <si>
+    <t>rtc_head</t>
+  </si>
+  <si>
+    <t>29行</t>
+  </si>
+  <si>
+    <t>rtc_tbl</t>
+  </si>
+  <si>
+    <t>30行</t>
+  </si>
+  <si>
+    <t>TBL(rreq_tbl, RREQ_TBL_MAX_LEN)</t>
+  </si>
+  <si>
+    <t>35行</t>
+  </si>
+  <si>
+    <t>dsr-rreq.c</t>
+  </si>
+  <si>
+    <t>rreq_seqno</t>
+  </si>
+  <si>
+    <t>36行</t>
+  </si>
+  <si>
+    <t>TBL(grat_rrep_tbl, GRAT_RREP_TBL_MAX_LEN)</t>
+  </si>
+  <si>
+    <t>dsr-rrep.c</t>
+  </si>
+  <si>
+    <t>dsr_rerr_opt</t>
+  </si>
+  <si>
+    <t>25行</t>
+  </si>
+  <si>
+    <t>dsr-rrer.c</t>
+  </si>
+  <si>
+    <t>offset_</t>
+  </si>
+  <si>
+    <t>41行</t>
+  </si>
+  <si>
+    <t>dsr-opt.c</t>
+  </si>
+  <si>
+    <t>mackill_list</t>
+  </si>
+  <si>
+    <t>62行</t>
+  </si>
+  <si>
+    <t>dsr-module.c</t>
+  </si>
+  <si>
+    <t>mackill_len</t>
+  </si>
+  <si>
+    <t>63行</t>
+  </si>
+  <si>
+    <t>net_device</t>
+  </si>
+  <si>
+    <t>dsr-dev.c</t>
+  </si>
+  <si>
+    <t>dsr_ack_req_opt</t>
+  </si>
+  <si>
+    <t>118行</t>
+  </si>
+  <si>
+    <t>dsr-ack.c</t>
+  </si>
+  <si>
+    <t>__dbg_log_buf</t>
+  </si>
+  <si>
+    <t>debug.c</t>
+  </si>
+  <si>
+    <t>dbg_logbuf_lock</t>
+  </si>
+  <si>
+    <t>dbg_log_buf</t>
+  </si>
+  <si>
+    <t>dbg_log_buf_len</t>
+  </si>
+  <si>
+    <t>dbg_log_start</t>
+  </si>
+  <si>
+    <t>dbg_log_end</t>
+  </si>
+  <si>
+    <t>logged_chars</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
   <si>
     <t>dsr_pkt</t>
   </si>
@@ -38,9 +191,6 @@
   </si>
   <si>
     <t>选项头</t>
-  </si>
-  <si>
-    <t>dsr_rerr_opt</t>
   </si>
   <si>
     <t>dsr-rrer</t>
@@ -72,13 +222,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -100,21 +258,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,116 +371,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +410,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,175 +452,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,11 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,17 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,7 +647,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,19 +670,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,164 +690,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1022,93 +1183,353 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
     <col min="2" max="2" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
